--- a/tbg/Assets/Excel/config/ICharacter.xlsx
+++ b/tbg/Assets/Excel/config/ICharacter.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>guid</t>
   </si>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,7 +892,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>

--- a/tbg/Assets/Excel/config/ICharacter.xlsx
+++ b/tbg/Assets/Excel/config/ICharacter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>guid</t>
   </si>
@@ -174,9 +174,6 @@
     <t>580</t>
   </si>
   <si>
-    <t>100001,100002</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>100002,100003</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>700</t>
   </si>
   <si>
-    <t>100003,100004</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>100004,100005</t>
   </si>
   <si>
     <t>104</t>
@@ -270,6 +258,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DingXiangZhuiJi,AnRen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,116 +671,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="32" max="32" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AC1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AF1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -889,103 +884,103 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1083,45 +1078,45 @@
         <v>32</v>
       </c>
       <c r="AF4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s">
         <v>51</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>40</v>
@@ -1130,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -1184,36 +1179,36 @@
         <v>32</v>
       </c>
       <c r="AF5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -1285,36 +1280,36 @@
         <v>32</v>
       </c>
       <c r="AF6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
         <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
@@ -1386,10 +1381,10 @@
         <v>32</v>
       </c>
       <c r="AF7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/tbg/Assets/Excel/config/ICharacter.xlsx
+++ b/tbg/Assets/Excel/config/ICharacter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="97">
   <si>
     <t>guid</t>
   </si>
@@ -262,6 +262,76 @@
   </si>
   <si>
     <t>DingXiangZhuiJi,AnRen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗刃杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnRen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DingXiangZhuiJi,AnRen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DingXiangZhuiJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChiXuPenFa,PoXueWeiGong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之音律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FengZhiYunSha</t>
+  </si>
+  <si>
+    <t>ShengMingXuYuan</t>
+  </si>
+  <si>
+    <t>圣科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,6 +347,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -302,8 +378,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="AF4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG4" t="s">
         <v>51</v>
@@ -1384,6 +1461,511 @@
         <v>78</v>
       </c>
       <c r="AG7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG12" t="s">
         <v>71</v>
       </c>
     </row>
